--- a/datasheets/compare/compare_algs_S-N1.xlsx
+++ b/datasheets/compare/compare_algs_S-N1.xlsx
@@ -452,68 +452,68 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2483</v>
       </c>
       <c r="C2" t="n">
-        <v>297</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4784</v>
+        <v>84</v>
       </c>
       <c r="C3" t="n">
-        <v>224</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>152</v>
+        <v>504</v>
       </c>
       <c r="B4" t="n">
-        <v>2718</v>
+        <v>3627</v>
       </c>
       <c r="C4" t="n">
-        <v>159</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>850</v>
+        <v>390</v>
       </c>
       <c r="C5" t="n">
-        <v>168</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-407</v>
       </c>
       <c r="B6" t="n">
-        <v>702</v>
+        <v>3745</v>
       </c>
       <c r="C6" t="n">
-        <v>159</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-8</v>
+        <v>286</v>
       </c>
       <c r="B7" t="n">
-        <v>2078</v>
+        <v>3523</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>131</v>
+        <v>1533</v>
       </c>
       <c r="C8" t="n">
-        <v>94</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="9">
@@ -532,21 +532,21 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>651</v>
+        <v>1807</v>
       </c>
       <c r="C9" t="n">
-        <v>129</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="B10" t="n">
-        <v>2690</v>
+        <v>3555</v>
       </c>
       <c r="C10" t="n">
-        <v>191</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="11">
@@ -554,43 +554,43 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1074</v>
+        <v>1685</v>
       </c>
       <c r="C11" t="n">
-        <v>191</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>843</v>
+        <v>2137</v>
       </c>
       <c r="C12" t="n">
-        <v>80</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>275</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>3347</v>
+        <v>584</v>
       </c>
       <c r="C13" t="n">
-        <v>131</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>49</v>
+        <v>359</v>
       </c>
       <c r="B14" t="n">
-        <v>1555</v>
+        <v>3110</v>
       </c>
       <c r="C14" t="n">
-        <v>285</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="15">
@@ -598,21 +598,21 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>628</v>
+        <v>2065</v>
       </c>
       <c r="C15" t="n">
-        <v>180</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="B16" t="n">
-        <v>1853</v>
+        <v>3018</v>
       </c>
       <c r="C16" t="n">
-        <v>140</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="17">
@@ -620,131 +620,131 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>425</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>232</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="B18" t="n">
-        <v>2609</v>
+        <v>2898</v>
       </c>
       <c r="C18" t="n">
-        <v>99</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="B19" t="n">
-        <v>2597</v>
+        <v>1890</v>
       </c>
       <c r="C19" t="n">
-        <v>74</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>1986</v>
+        <v>2119</v>
       </c>
       <c r="C20" t="n">
-        <v>231</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>-277</v>
       </c>
       <c r="B21" t="n">
-        <v>2045</v>
+        <v>3289</v>
       </c>
       <c r="C21" t="n">
-        <v>124</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>2672</v>
+        <v>107</v>
       </c>
       <c r="C22" t="n">
-        <v>77</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="B23" t="n">
-        <v>2346</v>
+        <v>4232</v>
       </c>
       <c r="C23" t="n">
-        <v>153</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B24" t="n">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="C24" t="n">
-        <v>135</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="B25" t="n">
-        <v>1220</v>
+        <v>3103</v>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>3123</v>
+        <v>2534</v>
       </c>
       <c r="C26" t="n">
-        <v>158</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>155</v>
+        <v>443</v>
       </c>
       <c r="B27" t="n">
-        <v>2890</v>
+        <v>3641</v>
       </c>
       <c r="C27" t="n">
-        <v>171</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B28" t="n">
-        <v>2624</v>
+        <v>2601</v>
       </c>
       <c r="C28" t="n">
-        <v>150</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="29">
@@ -752,21 +752,21 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1518</v>
+        <v>221</v>
       </c>
       <c r="C29" t="n">
-        <v>159</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>506</v>
+        <v>961</v>
       </c>
       <c r="C30" t="n">
-        <v>35</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="31">
@@ -774,43 +774,43 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>17</v>
+        <v>776</v>
       </c>
       <c r="C31" t="n">
-        <v>168</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>3841</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>2200</v>
+        <v>80</v>
       </c>
       <c r="C33" t="n">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B34" t="n">
-        <v>1253</v>
+        <v>1882</v>
       </c>
       <c r="C34" t="n">
-        <v>103</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="35">
@@ -818,21 +818,21 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>483</v>
+        <v>28</v>
       </c>
       <c r="C35" t="n">
-        <v>151</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>2153</v>
+        <v>1214</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="37">
@@ -840,109 +840,109 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>715</v>
+        <v>758</v>
       </c>
       <c r="C37" t="n">
-        <v>286</v>
+        <v>998</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="C38" t="n">
-        <v>53</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B39" t="n">
-        <v>1870</v>
+        <v>192</v>
       </c>
       <c r="C39" t="n">
-        <v>287</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>745</v>
       </c>
       <c r="B40" t="n">
-        <v>132</v>
+        <v>3744</v>
       </c>
       <c r="C40" t="n">
-        <v>143</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-9</v>
+        <v>760</v>
       </c>
       <c r="B41" t="n">
-        <v>2479</v>
+        <v>4616</v>
       </c>
       <c r="C41" t="n">
-        <v>169</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B42" t="n">
-        <v>1355</v>
+        <v>2630</v>
       </c>
       <c r="C42" t="n">
-        <v>57</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1</v>
+        <v>315</v>
       </c>
       <c r="B43" t="n">
-        <v>2396</v>
+        <v>3294</v>
       </c>
       <c r="C43" t="n">
-        <v>91</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-686</v>
+        <v>239</v>
       </c>
       <c r="B44" t="n">
-        <v>4399</v>
+        <v>2546</v>
       </c>
       <c r="C44" t="n">
-        <v>118</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="B45" t="n">
-        <v>1806</v>
+        <v>2577</v>
       </c>
       <c r="C45" t="n">
-        <v>43</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>3011</v>
+        <v>2465</v>
       </c>
       <c r="C46" t="n">
-        <v>174</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="47">
@@ -950,76 +950,76 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>17</v>
+        <v>2387</v>
       </c>
       <c r="C47" t="n">
-        <v>32</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>2391</v>
+        <v>1789</v>
       </c>
       <c r="C48" t="n">
-        <v>135</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>3509</v>
+        <v>581</v>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>669</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-1207</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>5179</v>
+        <v>1130</v>
       </c>
       <c r="C50" t="n">
-        <v>148</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1624</v>
+        <v>261</v>
       </c>
       <c r="C51" t="n">
-        <v>196</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="B52" t="n">
-        <v>1873</v>
+        <v>4318</v>
       </c>
       <c r="C52" t="n">
-        <v>172</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>579</v>
+        <v>2</v>
       </c>
       <c r="B53" t="n">
-        <v>4184</v>
+        <v>1053</v>
       </c>
       <c r="C53" t="n">
-        <v>168</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="54">
@@ -1027,131 +1027,131 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>2182</v>
+        <v>1681</v>
       </c>
       <c r="C54" t="n">
-        <v>226</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="B55" t="n">
-        <v>193</v>
+        <v>2928</v>
       </c>
       <c r="C55" t="n">
-        <v>211</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="B56" t="n">
-        <v>1882</v>
+        <v>3106</v>
       </c>
       <c r="C56" t="n">
-        <v>199</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="B57" t="n">
-        <v>2247</v>
+        <v>4096</v>
       </c>
       <c r="C57" t="n">
-        <v>50</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>3596</v>
+        <v>1993</v>
       </c>
       <c r="C58" t="n">
-        <v>121</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B59" t="n">
-        <v>1840</v>
+        <v>1948</v>
       </c>
       <c r="C59" t="n">
-        <v>304</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>1461</v>
+        <v>746</v>
       </c>
       <c r="C60" t="n">
-        <v>77</v>
+        <v>924</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>3643</v>
+        <v>384</v>
       </c>
       <c r="C61" t="n">
-        <v>177</v>
+        <v>584</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>1318</v>
+        <v>362</v>
       </c>
       <c r="C62" t="n">
-        <v>180</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1122</v>
+        <v>2737</v>
       </c>
       <c r="C63" t="n">
-        <v>136</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>2176</v>
+        <v>1113</v>
       </c>
       <c r="C64" t="n">
-        <v>47</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-802</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>3923</v>
+        <v>167</v>
       </c>
       <c r="C65" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66">
@@ -1159,43 +1159,43 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>1961</v>
+        <v>1045</v>
       </c>
       <c r="C66" t="n">
-        <v>102</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>3330</v>
+        <v>952</v>
       </c>
       <c r="C67" t="n">
-        <v>189</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="B68" t="n">
-        <v>2702</v>
+        <v>309</v>
       </c>
       <c r="C68" t="n">
-        <v>207</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="B69" t="n">
-        <v>109</v>
+        <v>3673</v>
       </c>
       <c r="C69" t="n">
-        <v>362</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="70">
@@ -1203,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>129</v>
+        <v>1522</v>
       </c>
       <c r="C70" t="n">
-        <v>216</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1342</v>
+        <v>393</v>
       </c>
       <c r="C71" t="n">
-        <v>303</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>38</v>
+        <v>2946</v>
       </c>
       <c r="C72" t="n">
-        <v>26</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>99</v>
+        <v>1583</v>
       </c>
       <c r="C73" t="n">
-        <v>398</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="74">
@@ -1247,76 +1247,76 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>441</v>
+        <v>1973</v>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>3918</v>
+        <v>69</v>
       </c>
       <c r="C75" t="n">
-        <v>298</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1123</v>
+        <v>-106</v>
       </c>
       <c r="B76" t="n">
-        <v>4778</v>
+        <v>659</v>
       </c>
       <c r="C76" t="n">
-        <v>48</v>
+        <v>699</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="B77" t="n">
-        <v>2436</v>
+        <v>2809</v>
       </c>
       <c r="C77" t="n">
-        <v>158</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>468</v>
       </c>
       <c r="B78" t="n">
-        <v>1900</v>
+        <v>3595</v>
       </c>
       <c r="C78" t="n">
-        <v>109</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>-240</v>
       </c>
       <c r="B79" t="n">
-        <v>901</v>
+        <v>3345</v>
       </c>
       <c r="C79" t="n">
-        <v>187</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>419</v>
+        <v>-634</v>
       </c>
       <c r="B80" t="n">
-        <v>3160</v>
+        <v>3851</v>
       </c>
       <c r="C80" t="n">
-        <v>17</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="81">
@@ -1324,32 +1324,32 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>227</v>
+        <v>1783</v>
       </c>
       <c r="C81" t="n">
-        <v>212</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>2438</v>
+        <v>98</v>
       </c>
       <c r="C82" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>2416</v>
+        <v>527</v>
       </c>
       <c r="C83" t="n">
-        <v>81</v>
+        <v>711</v>
       </c>
     </row>
     <row r="84">
@@ -1357,43 +1357,43 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>864</v>
+        <v>893</v>
       </c>
       <c r="C84" t="n">
-        <v>82</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>907</v>
+        <v>874</v>
       </c>
       <c r="B85" t="n">
-        <v>3586</v>
+        <v>3831</v>
       </c>
       <c r="C85" t="n">
-        <v>91</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1</v>
+        <v>286</v>
       </c>
       <c r="B86" t="n">
-        <v>1978</v>
+        <v>3308</v>
       </c>
       <c r="C86" t="n">
-        <v>219</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>-572</v>
       </c>
       <c r="B87" t="n">
-        <v>762</v>
+        <v>3345</v>
       </c>
       <c r="C87" t="n">
-        <v>253</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>2128</v>
+        <v>1472</v>
       </c>
       <c r="C88" t="n">
-        <v>327</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="89">
@@ -1412,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>56</v>
+        <v>1281</v>
       </c>
       <c r="C89" t="n">
-        <v>51</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="B90" t="n">
-        <v>1082</v>
+        <v>3546</v>
       </c>
       <c r="C90" t="n">
-        <v>186</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="91">
@@ -1434,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>1311</v>
+        <v>1820</v>
       </c>
       <c r="C91" t="n">
-        <v>131</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>1984</v>
+        <v>2154</v>
       </c>
       <c r="C92" t="n">
-        <v>16</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="93">
@@ -1456,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>1155</v>
+        <v>2763</v>
       </c>
       <c r="C93" t="n">
-        <v>138</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>-172</v>
       </c>
       <c r="B94" t="n">
-        <v>1861</v>
+        <v>3487</v>
       </c>
       <c r="C94" t="n">
-        <v>104</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="95">
@@ -1478,32 +1478,32 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>874</v>
+        <v>1768</v>
       </c>
       <c r="C95" t="n">
-        <v>309</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="C96" t="n">
-        <v>159</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>2429</v>
+        <v>867</v>
       </c>
       <c r="C97" t="n">
-        <v>182</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="98">
@@ -1511,32 +1511,32 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C98" t="n">
-        <v>9</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="B99" t="n">
-        <v>520</v>
+        <v>3366</v>
       </c>
       <c r="C99" t="n">
-        <v>300</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>1577</v>
+        <v>85</v>
       </c>
       <c r="C100" t="n">
-        <v>175</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>23</v>
+        <v>2624</v>
       </c>
       <c r="C101" t="n">
-        <v>51</v>
+        <v>2850</v>
       </c>
     </row>
   </sheetData>

--- a/datasheets/compare/compare_algs_S-N1.xlsx
+++ b/datasheets/compare/compare_algs_S-N1.xlsx
@@ -452,167 +452,167 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>2483</v>
+        <v>714</v>
       </c>
       <c r="C2" t="n">
-        <v>2635</v>
+        <v>858</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1551</v>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>4411</v>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>504</v>
+        <v>719</v>
       </c>
       <c r="B4" t="n">
-        <v>3627</v>
+        <v>3121</v>
       </c>
       <c r="C4" t="n">
-        <v>3877</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>1819</v>
       </c>
       <c r="B5" t="n">
-        <v>390</v>
+        <v>4277</v>
       </c>
       <c r="C5" t="n">
-        <v>788</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-407</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>3745</v>
+        <v>1587</v>
       </c>
       <c r="C6" t="n">
-        <v>3995</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>286</v>
+        <v>749</v>
       </c>
       <c r="B7" t="n">
-        <v>3523</v>
+        <v>3107</v>
       </c>
       <c r="C7" t="n">
-        <v>3725</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1887</v>
       </c>
       <c r="B8" t="n">
-        <v>1533</v>
+        <v>3971</v>
       </c>
       <c r="C8" t="n">
-        <v>1779</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>1807</v>
+        <v>97</v>
       </c>
       <c r="C9" t="n">
-        <v>2035</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>352</v>
+        <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>3555</v>
+        <v>264</v>
       </c>
       <c r="C10" t="n">
-        <v>3891</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11" t="n">
-        <v>1685</v>
+        <v>1641</v>
       </c>
       <c r="C11" t="n">
-        <v>1871</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>2137</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>2397</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>1427</v>
       </c>
       <c r="B13" t="n">
-        <v>584</v>
+        <v>4182</v>
       </c>
       <c r="C13" t="n">
-        <v>876</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>359</v>
+        <v>1589</v>
       </c>
       <c r="B14" t="n">
-        <v>3110</v>
+        <v>3635</v>
       </c>
       <c r="C14" t="n">
-        <v>3282</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>2065</v>
+        <v>975</v>
       </c>
       <c r="C15" t="n">
-        <v>2391</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>474</v>
+        <v>682</v>
       </c>
       <c r="B16" t="n">
-        <v>3018</v>
+        <v>3500</v>
       </c>
       <c r="C16" t="n">
-        <v>3410</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="17">
@@ -620,164 +620,164 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>720</v>
       </c>
       <c r="C17" t="n">
-        <v>110</v>
+        <v>920</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>2898</v>
+        <v>1475</v>
       </c>
       <c r="C18" t="n">
-        <v>3250</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14</v>
+        <v>622</v>
       </c>
       <c r="B19" t="n">
-        <v>1890</v>
+        <v>3251</v>
       </c>
       <c r="C19" t="n">
-        <v>2042</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>875</v>
       </c>
       <c r="B20" t="n">
-        <v>2119</v>
+        <v>3265</v>
       </c>
       <c r="C20" t="n">
-        <v>2163</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-277</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>3289</v>
+        <v>1478</v>
       </c>
       <c r="C21" t="n">
-        <v>3337</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="B22" t="n">
-        <v>107</v>
+        <v>4013</v>
       </c>
       <c r="C22" t="n">
-        <v>189</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>584</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>4232</v>
+        <v>2629</v>
       </c>
       <c r="C23" t="n">
-        <v>4384</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B24" t="n">
-        <v>2111</v>
+        <v>2277</v>
       </c>
       <c r="C24" t="n">
-        <v>2417</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>540</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>3103</v>
+        <v>2156</v>
       </c>
       <c r="C25" t="n">
-        <v>3379</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>2534</v>
+        <v>1148</v>
       </c>
       <c r="C26" t="n">
-        <v>2698</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>443</v>
+        <v>4</v>
       </c>
       <c r="B27" t="n">
-        <v>3641</v>
+        <v>2496</v>
       </c>
       <c r="C27" t="n">
-        <v>3927</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-7</v>
+        <v>2071</v>
       </c>
       <c r="B28" t="n">
-        <v>2601</v>
+        <v>4755</v>
       </c>
       <c r="C28" t="n">
-        <v>2739</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1145</v>
       </c>
       <c r="B29" t="n">
-        <v>221</v>
+        <v>3309</v>
       </c>
       <c r="C29" t="n">
-        <v>559</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>961</v>
+        <v>406</v>
       </c>
       <c r="C30" t="n">
-        <v>1093</v>
+        <v>638</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>776</v>
+        <v>2796</v>
       </c>
       <c r="C31" t="n">
-        <v>1070</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="32">
@@ -785,175 +785,175 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>760</v>
       </c>
       <c r="C32" t="n">
-        <v>151</v>
+        <v>786</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B33" t="n">
-        <v>80</v>
+        <v>637</v>
       </c>
       <c r="C33" t="n">
-        <v>244</v>
+        <v>937</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-1</v>
+        <v>126</v>
       </c>
       <c r="B34" t="n">
-        <v>1882</v>
+        <v>2830</v>
       </c>
       <c r="C34" t="n">
-        <v>2022</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B35" t="n">
-        <v>28</v>
+        <v>2420</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1158</v>
       </c>
       <c r="B36" t="n">
-        <v>1214</v>
+        <v>3400</v>
       </c>
       <c r="C36" t="n">
-        <v>1310</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>758</v>
+        <v>317</v>
       </c>
       <c r="C37" t="n">
-        <v>998</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>1360</v>
       </c>
       <c r="B38" t="n">
-        <v>220</v>
+        <v>4110</v>
       </c>
       <c r="C38" t="n">
-        <v>202</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="B39" t="n">
-        <v>192</v>
+        <v>1576</v>
       </c>
       <c r="C39" t="n">
-        <v>42</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>3744</v>
+        <v>1124</v>
       </c>
       <c r="C40" t="n">
-        <v>4182</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>4616</v>
+        <v>894</v>
       </c>
       <c r="C41" t="n">
-        <v>4740</v>
+        <v>946</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B42" t="n">
-        <v>2630</v>
+        <v>2339</v>
       </c>
       <c r="C42" t="n">
-        <v>2748</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>315</v>
+        <v>849</v>
       </c>
       <c r="B43" t="n">
-        <v>3294</v>
+        <v>2837</v>
       </c>
       <c r="C43" t="n">
-        <v>3488</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="B44" t="n">
-        <v>2546</v>
+        <v>208</v>
       </c>
       <c r="C44" t="n">
-        <v>2752</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="B45" t="n">
-        <v>2577</v>
+        <v>683</v>
       </c>
       <c r="C45" t="n">
-        <v>2889</v>
+        <v>849</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B46" t="n">
-        <v>2465</v>
+        <v>1655</v>
       </c>
       <c r="C46" t="n">
-        <v>2533</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="B47" t="n">
-        <v>2387</v>
+        <v>4204</v>
       </c>
       <c r="C47" t="n">
-        <v>2571</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>1789</v>
+        <v>118</v>
       </c>
       <c r="C48" t="n">
-        <v>2153</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49">
@@ -972,54 +972,54 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>581</v>
+        <v>2072</v>
       </c>
       <c r="C49" t="n">
-        <v>669</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>1956</v>
       </c>
       <c r="B50" t="n">
-        <v>1130</v>
+        <v>3906</v>
       </c>
       <c r="C50" t="n">
-        <v>1240</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>261</v>
+        <v>1144</v>
       </c>
       <c r="C51" t="n">
-        <v>129</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>575</v>
+        <v>8</v>
       </c>
       <c r="B52" t="n">
-        <v>4318</v>
+        <v>1925</v>
       </c>
       <c r="C52" t="n">
-        <v>4496</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="B53" t="n">
-        <v>1053</v>
+        <v>2501</v>
       </c>
       <c r="C53" t="n">
-        <v>1443</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="54">
@@ -1027,65 +1027,65 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>1681</v>
+        <v>2342</v>
       </c>
       <c r="C54" t="n">
-        <v>1917</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>2928</v>
+        <v>1555</v>
       </c>
       <c r="C55" t="n">
-        <v>3204</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>276</v>
+        <v>2216</v>
       </c>
       <c r="B56" t="n">
-        <v>3106</v>
+        <v>4186</v>
       </c>
       <c r="C56" t="n">
-        <v>3156</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>4096</v>
+        <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>4386</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="B58" t="n">
-        <v>1993</v>
+        <v>2395</v>
       </c>
       <c r="C58" t="n">
-        <v>2145</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1948</v>
+        <v>13</v>
       </c>
       <c r="C59" t="n">
-        <v>1982</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60">
@@ -1093,54 +1093,54 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>746</v>
+        <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>924</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B61" t="n">
-        <v>384</v>
+        <v>88</v>
       </c>
       <c r="C61" t="n">
-        <v>584</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>362</v>
+        <v>1980</v>
       </c>
       <c r="C62" t="n">
-        <v>466</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B63" t="n">
-        <v>2737</v>
+        <v>1565</v>
       </c>
       <c r="C63" t="n">
-        <v>2849</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B64" t="n">
-        <v>1113</v>
+        <v>699</v>
       </c>
       <c r="C64" t="n">
-        <v>1447</v>
+        <v>801</v>
       </c>
     </row>
     <row r="65">
@@ -1148,54 +1148,54 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>167</v>
+        <v>1690</v>
       </c>
       <c r="C65" t="n">
-        <v>113</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1632</v>
       </c>
       <c r="B66" t="n">
-        <v>1045</v>
+        <v>3663</v>
       </c>
       <c r="C66" t="n">
-        <v>1155</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>952</v>
+        <v>2317</v>
       </c>
       <c r="C67" t="n">
-        <v>1234</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6</v>
+        <v>925</v>
       </c>
       <c r="B68" t="n">
-        <v>309</v>
+        <v>3171</v>
       </c>
       <c r="C68" t="n">
-        <v>377</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>485</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>3673</v>
+        <v>429</v>
       </c>
       <c r="C69" t="n">
-        <v>3801</v>
+        <v>631</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>1522</v>
+        <v>656</v>
       </c>
       <c r="C70" t="n">
-        <v>1896</v>
+        <v>746</v>
       </c>
     </row>
     <row r="71">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="C71" t="n">
         <v>595</v>
@@ -1225,21 +1225,21 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>2946</v>
+        <v>918</v>
       </c>
       <c r="C72" t="n">
-        <v>2986</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="B73" t="n">
-        <v>1583</v>
+        <v>3372</v>
       </c>
       <c r="C73" t="n">
-        <v>1631</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="74">
@@ -1247,285 +1247,285 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>1973</v>
+        <v>2118</v>
       </c>
       <c r="C74" t="n">
-        <v>2201</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="B75" t="n">
-        <v>69</v>
+        <v>3364</v>
       </c>
       <c r="C75" t="n">
-        <v>71</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-106</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>659</v>
+        <v>2486</v>
       </c>
       <c r="C76" t="n">
-        <v>699</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>2809</v>
+        <v>2771</v>
       </c>
       <c r="C77" t="n">
-        <v>2951</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>468</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>3595</v>
+        <v>2089</v>
       </c>
       <c r="C78" t="n">
-        <v>3733</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-240</v>
+        <v>2084</v>
       </c>
       <c r="B79" t="n">
-        <v>3345</v>
+        <v>4287</v>
       </c>
       <c r="C79" t="n">
-        <v>3439</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-634</v>
+        <v>324</v>
       </c>
       <c r="B80" t="n">
-        <v>3851</v>
+        <v>3056</v>
       </c>
       <c r="C80" t="n">
-        <v>4127</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>1783</v>
+        <v>573</v>
       </c>
       <c r="C81" t="n">
-        <v>2183</v>
+        <v>721</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="B82" t="n">
-        <v>98</v>
+        <v>3053</v>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1807</v>
       </c>
       <c r="B83" t="n">
-        <v>527</v>
+        <v>5146</v>
       </c>
       <c r="C83" t="n">
-        <v>711</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>893</v>
+        <v>1885</v>
       </c>
       <c r="C84" t="n">
-        <v>1071</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>874</v>
+        <v>797</v>
       </c>
       <c r="B85" t="n">
-        <v>3831</v>
+        <v>2967</v>
       </c>
       <c r="C85" t="n">
-        <v>4047</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n">
-        <v>3308</v>
+        <v>2198</v>
       </c>
       <c r="C86" t="n">
-        <v>3410</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-572</v>
+        <v>46</v>
       </c>
       <c r="B87" t="n">
-        <v>3345</v>
+        <v>174</v>
       </c>
       <c r="C87" t="n">
-        <v>3625</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B88" t="n">
-        <v>1472</v>
+        <v>3185</v>
       </c>
       <c r="C88" t="n">
-        <v>1546</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B89" t="n">
-        <v>1281</v>
+        <v>2565</v>
       </c>
       <c r="C89" t="n">
-        <v>1309</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>3546</v>
+        <v>378</v>
       </c>
       <c r="C90" t="n">
-        <v>3770</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="B91" t="n">
-        <v>1820</v>
+        <v>3955</v>
       </c>
       <c r="C91" t="n">
-        <v>1932</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>653</v>
       </c>
       <c r="B92" t="n">
-        <v>2154</v>
+        <v>2725</v>
       </c>
       <c r="C92" t="n">
-        <v>2176</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B93" t="n">
-        <v>2763</v>
+        <v>14</v>
       </c>
       <c r="C93" t="n">
-        <v>2827</v>
+        <v>346</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-172</v>
+        <v>4</v>
       </c>
       <c r="B94" t="n">
-        <v>3487</v>
+        <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>3707</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>2178</v>
       </c>
       <c r="B95" t="n">
-        <v>1768</v>
+        <v>4306</v>
       </c>
       <c r="C95" t="n">
-        <v>1822</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="B96" t="n">
-        <v>209</v>
+        <v>2996</v>
       </c>
       <c r="C96" t="n">
-        <v>475</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B97" t="n">
-        <v>867</v>
+        <v>2649</v>
       </c>
       <c r="C97" t="n">
-        <v>1185</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="B98" t="n">
-        <v>88</v>
+        <v>3472</v>
       </c>
       <c r="C98" t="n">
-        <v>160</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>552</v>
+        <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>3366</v>
+        <v>1665</v>
       </c>
       <c r="C99" t="n">
-        <v>3442</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="100">
@@ -1533,21 +1533,21 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>85</v>
+        <v>2109</v>
       </c>
       <c r="C100" t="n">
-        <v>79</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B101" t="n">
-        <v>2624</v>
+        <v>2160</v>
       </c>
       <c r="C101" t="n">
-        <v>2850</v>
+        <v>2450</v>
       </c>
     </row>
   </sheetData>
